--- a/XAUUSD/Data_XAUUSD.xlsx
+++ b/XAUUSD/Data_XAUUSD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79982ED5-DBD6-4446-AED4-CF4AB98AE1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="3030" windowWidth="14355" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="3030" windowWidth="14355" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -382,7 +381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -427,30 +426,30 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2269</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>481</v>
+        <v>655</v>
       </c>
       <c r="C3" s="1">
-        <v>2269</v>
+        <v>1333</v>
       </c>
       <c r="D3">
-        <v>4101</v>
+        <v>9096</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3529.85</v>
+        <v>121.85</v>
       </c>
       <c r="B4">
-        <v>837.3</v>
+        <v>1291.6500000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>3529.85</v>
+        <v>4687.95</v>
       </c>
       <c r="D4">
-        <v>13223.7</v>
+        <v>14931.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -469,30 +468,30 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>38.04</v>
+        <v>40.25</v>
       </c>
       <c r="B6">
-        <v>47.71</v>
+        <v>31.77</v>
       </c>
       <c r="C6">
-        <v>52.11</v>
+        <v>29.23</v>
       </c>
       <c r="D6">
-        <v>44.86</v>
+        <v>26.66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>44.67</v>
+        <v>41.37</v>
       </c>
       <c r="B7">
-        <v>52.34</v>
+        <v>32.28</v>
       </c>
       <c r="C7">
-        <v>57.22</v>
+        <v>35.57</v>
       </c>
       <c r="D7">
-        <v>35.270000000000003</v>
+        <v>34.56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -529,52 +528,52 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>"Rsi sắp giao : " &amp;E39&amp; "; Rsi đang : " &amp;A6&amp; ";"</f>
-        <v>Rsi sắp giao : -6.63; Rsi đang : 38.04;</v>
+        <v>Rsi sắp giao : -1.12; Rsi đang : 40.25;</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39">
         <f>A6-A7</f>
-        <v>-6.6300000000000026</v>
+        <v>-1.1199999999999974</v>
       </c>
       <c r="F39">
         <f>A3-A4</f>
-        <v>-1260.8499999999999</v>
+        <v>-121.85</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>"Rsi sắp giao : " &amp;E40&amp; "; Rsi đang : " &amp;B6&amp; ";"</f>
-        <v>Rsi sắp giao : -4.63; Rsi đang : 47.71;</v>
+        <v>Rsi sắp giao : -0.510000000000002; Rsi đang : 31.77;</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
       <c r="E40">
         <f>B6-B7</f>
-        <v>-4.6300000000000026</v>
+        <v>-0.51000000000000156</v>
       </c>
       <c r="F40" s="3">
         <f>B3-B4</f>
-        <v>-356.29999999999995</v>
+        <v>-636.65000000000009</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>"Rsi sắp giao : " &amp;E41&amp; "; Rsi đang : " &amp;C6&amp; ";"</f>
-        <v>Rsi sắp giao : -5.11; Rsi đang : 52.11;</v>
+        <v>Rsi sắp giao : -6.34; Rsi đang : 29.23;</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
       <c r="E41">
         <f>C6-C7</f>
-        <v>-5.1099999999999994</v>
+        <v>-6.34</v>
       </c>
       <c r="F41" s="4">
         <f>C3-C4</f>
-        <v>-1260.8499999999999</v>
+        <v>-3354.95</v>
       </c>
       <c r="H41">
         <v>1000</v>
@@ -583,18 +582,18 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>"Rsi sắp giao : " &amp;E42&amp; "; Rsi đang : " &amp;D6&amp; ";"</f>
-        <v>Rsi sắp giao : 9.59; Rsi đang : 44.86;</v>
+        <v>Rsi sắp giao : -7.9; Rsi đang : 26.66;</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
       </c>
       <c r="E42">
         <f>D6-D7</f>
-        <v>9.5899999999999963</v>
+        <v>-7.9000000000000021</v>
       </c>
       <c r="F42" s="3">
         <f>D3-D4</f>
-        <v>-9122.7000000000007</v>
+        <v>-5835.5</v>
       </c>
       <c r="H42">
         <v>3000</v>

--- a/XAUUSD/Data_XAUUSD.xlsx
+++ b/XAUUSD/Data_XAUUSD.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
   <si>
     <t>Khoi luong</t>
   </si>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,10 +393,12 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -409,8 +411,20 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -423,36 +437,72 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>655</v>
+        <v>308</v>
       </c>
       <c r="C3" s="1">
-        <v>1333</v>
+        <v>308</v>
       </c>
       <c r="D3">
-        <v>9096</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4445</v>
+      </c>
+      <c r="F3">
+        <v>319</v>
+      </c>
+      <c r="G3">
+        <v>939</v>
+      </c>
+      <c r="H3" s="1">
+        <v>952</v>
+      </c>
+      <c r="I3">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>121.85</v>
+        <v>388.6</v>
       </c>
       <c r="B4">
-        <v>1291.6500000000001</v>
+        <v>1555.2</v>
       </c>
       <c r="C4" s="2">
-        <v>4687.95</v>
+        <v>3469.2</v>
       </c>
       <c r="D4">
-        <v>14931.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14886.55</v>
+      </c>
+      <c r="F4">
+        <v>444.65</v>
+      </c>
+      <c r="G4">
+        <v>1558.25</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3847.35</v>
+      </c>
+      <c r="I4">
+        <v>14717.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -465,36 +515,72 @@
       <c r="D5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>40.25</v>
+        <v>46.46</v>
       </c>
       <c r="B6">
-        <v>31.77</v>
+        <v>43.93</v>
       </c>
       <c r="C6">
-        <v>29.23</v>
+        <v>38.61</v>
       </c>
       <c r="D6">
-        <v>26.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>50.63</v>
+      </c>
+      <c r="G6">
+        <v>42.99</v>
+      </c>
+      <c r="H6">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>28.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>41.37</v>
+        <v>55.45</v>
       </c>
       <c r="B7">
-        <v>32.28</v>
+        <v>40.98</v>
       </c>
       <c r="C7">
-        <v>35.57</v>
+        <v>34.409999999999997</v>
       </c>
       <c r="D7">
-        <v>34.56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="F7">
+        <v>39.44</v>
+      </c>
+      <c r="G7">
+        <v>39.18</v>
+      </c>
+      <c r="H7">
+        <v>33.82</v>
+      </c>
+      <c r="I7">
+        <v>32.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -507,8 +593,20 @@
       <c r="D8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -521,82 +619,104 @@
       <c r="D9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>"Rsi sắp giao : " &amp;E39&amp; "; Rsi đang : " &amp;A6&amp; ";"</f>
-        <v>Rsi sắp giao : -1.12; Rsi đang : 40.25;</v>
+        <v>Rsi sắp giao : -8.99; Rsi đang : 46.46;</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39">
         <f>A6-A7</f>
-        <v>-1.1199999999999974</v>
+        <v>-8.990000000000002</v>
       </c>
       <c r="F39">
         <f>A3-A4</f>
-        <v>-121.85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-375.6</v>
+      </c>
+      <c r="G39" s="3">
+        <f>A4-F4</f>
+        <v>-56.049999999999955</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>"Rsi sắp giao : " &amp;E40&amp; "; Rsi đang : " &amp;B6&amp; ";"</f>
-        <v>Rsi sắp giao : -0.510000000000002; Rsi đang : 31.77;</v>
+        <v>Rsi sắp giao : 2.95; Rsi đang : 43.93;</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
       <c r="E40">
         <f>B6-B7</f>
-        <v>-0.51000000000000156</v>
+        <v>2.9500000000000028</v>
       </c>
       <c r="F40" s="3">
         <f>B3-B4</f>
-        <v>-636.65000000000009</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-1247.2</v>
+      </c>
+      <c r="G40" s="3">
+        <f>B4-G4</f>
+        <v>-3.0499999999999545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>"Rsi sắp giao : " &amp;E41&amp; "; Rsi đang : " &amp;C6&amp; ";"</f>
-        <v>Rsi sắp giao : -6.34; Rsi đang : 29.23;</v>
+        <v>Rsi sắp giao : 4.2; Rsi đang : 38.61;</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
       <c r="E41">
         <f>C6-C7</f>
-        <v>-6.34</v>
+        <v>4.2000000000000028</v>
       </c>
       <c r="F41" s="4">
         <f>C3-C4</f>
-        <v>-3354.95</v>
-      </c>
-      <c r="H41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-3161.2</v>
+      </c>
+      <c r="G41" s="3">
+        <f>C4-H4</f>
+        <v>-378.15000000000009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>"Rsi sắp giao : " &amp;E42&amp; "; Rsi đang : " &amp;D6&amp; ";"</f>
-        <v>Rsi sắp giao : -7.9; Rsi đang : 26.66;</v>
+        <v>Rsi sắp giao : -3.12; Rsi đang : 29;</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
       </c>
       <c r="E42">
         <f>D6-D7</f>
-        <v>-7.9000000000000021</v>
+        <v>-3.1199999999999974</v>
       </c>
       <c r="F42" s="3">
         <f>D3-D4</f>
-        <v>-5835.5</v>
-      </c>
-      <c r="H42">
-        <v>3000</v>
+        <v>-10441.549999999999</v>
+      </c>
+      <c r="G42" s="3">
+        <f>D4-I4</f>
+        <v>168.94999999999891</v>
       </c>
     </row>
   </sheetData>
